--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Gfra4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Gfra4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -549,10 +549,10 @@
         <v>3.499619</v>
       </c>
       <c r="I2">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J2">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.07049800000000001</v>
+        <v>0.058761</v>
       </c>
       <c r="N2">
-        <v>0.140996</v>
+        <v>0.117522</v>
       </c>
       <c r="O2">
-        <v>0.02194219794229256</v>
+        <v>0.02176148226403952</v>
       </c>
       <c r="P2">
-        <v>0.01638580674612343</v>
+        <v>0.0163250711987138</v>
       </c>
       <c r="Q2">
-        <v>0.08223871342066667</v>
+        <v>0.06854703735300001</v>
       </c>
       <c r="R2">
-        <v>0.4934322805240001</v>
+        <v>0.411282224118</v>
       </c>
       <c r="S2">
-        <v>0.007061631252887447</v>
+        <v>0.01186076470932907</v>
       </c>
       <c r="T2">
-        <v>0.005506316076642169</v>
+        <v>0.01038643472008219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>3.499619</v>
       </c>
       <c r="I3">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J3">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.729918666666667</v>
+        <v>1.729918666666666</v>
       </c>
       <c r="N3">
-        <v>5.189756</v>
+        <v>5.189755999999999</v>
       </c>
       <c r="O3">
-        <v>0.538429711595603</v>
+        <v>0.6406561219669091</v>
       </c>
       <c r="P3">
-        <v>0.6031258963058138</v>
+        <v>0.7209129882400922</v>
       </c>
       <c r="Q3">
-        <v>2.018018744773778</v>
+        <v>2.018018744773777</v>
       </c>
       <c r="R3">
         <v>18.162168702964</v>
       </c>
       <c r="S3">
-        <v>0.1732821884519662</v>
+        <v>0.3491798688179164</v>
       </c>
       <c r="T3">
-        <v>0.2026755148844659</v>
+        <v>0.4586635856023114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,40 +673,40 @@
         <v>3.499619</v>
       </c>
       <c r="I4">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J4">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1372143333333334</v>
+        <v>0.843062</v>
       </c>
       <c r="N4">
-        <v>0.411643</v>
+        <v>1.686124</v>
       </c>
       <c r="O4">
-        <v>0.04270736847172562</v>
+        <v>0.3122186273291074</v>
       </c>
       <c r="P4">
-        <v>0.04783896455498372</v>
+        <v>0.2342207786615281</v>
       </c>
       <c r="Q4">
-        <v>0.1600659626685556</v>
+        <v>0.9834652644593334</v>
       </c>
       <c r="R4">
-        <v>1.440593664017</v>
+        <v>5.900791586756</v>
       </c>
       <c r="S4">
-        <v>0.01374446118486741</v>
+        <v>0.1701700110171096</v>
       </c>
       <c r="T4">
-        <v>0.01607589200216469</v>
+        <v>0.1490173487173793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,40 +735,40 @@
         <v>3.499619</v>
       </c>
       <c r="I5">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J5">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9634259999999999</v>
+        <v>0.04872966666666667</v>
       </c>
       <c r="N5">
-        <v>1.926852</v>
+        <v>0.146189</v>
       </c>
       <c r="O5">
-        <v>0.2998621804129359</v>
+        <v>0.018046489625759</v>
       </c>
       <c r="P5">
-        <v>0.2239285121590783</v>
+        <v>0.02030722616589891</v>
       </c>
       <c r="Q5">
-        <v>1.123874644898</v>
+        <v>0.05684508911011112</v>
       </c>
       <c r="R5">
-        <v>6.743247869387999</v>
+        <v>0.511605801991</v>
       </c>
       <c r="S5">
-        <v>0.0965042859576774</v>
+        <v>0.009835964512131666</v>
       </c>
       <c r="T5">
-        <v>0.07524934143458052</v>
+        <v>0.01291998523930919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>3.499619</v>
       </c>
       <c r="I6">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J6">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.311839</v>
+        <v>0.01975833333333333</v>
       </c>
       <c r="N6">
-        <v>0.935517</v>
+        <v>0.059275</v>
       </c>
       <c r="O6">
-        <v>0.09705854157744292</v>
+        <v>0.007317278814184819</v>
       </c>
       <c r="P6">
-        <v>0.1087208202340006</v>
+        <v>0.008233935733766958</v>
       </c>
       <c r="Q6">
-        <v>0.3637725631136667</v>
+        <v>0.02304887958055556</v>
       </c>
       <c r="R6">
-        <v>3.273953068023</v>
+        <v>0.207439916225</v>
       </c>
       <c r="S6">
-        <v>0.03123623405301099</v>
+        <v>0.003988171452411635</v>
       </c>
       <c r="T6">
-        <v>0.0365347406810977</v>
+        <v>0.005238643981832096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,19 +850,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H7">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I7">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J7">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.07049800000000001</v>
+        <v>0.058761</v>
       </c>
       <c r="N7">
-        <v>0.140996</v>
+        <v>0.117522</v>
       </c>
       <c r="O7">
-        <v>0.02194219794229256</v>
+        <v>0.02176148226403952</v>
       </c>
       <c r="P7">
-        <v>0.01638580674612343</v>
+        <v>0.0163250711987138</v>
       </c>
       <c r="Q7">
-        <v>0.032423898397</v>
+        <v>0.003140481645</v>
       </c>
       <c r="R7">
-        <v>0.129695593588</v>
+        <v>0.01884288987</v>
       </c>
       <c r="S7">
-        <v>0.00278415851533936</v>
+        <v>0.0005434007843911795</v>
       </c>
       <c r="T7">
-        <v>0.001447300795328729</v>
+        <v>0.0004758543746746081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,19 +912,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H8">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I8">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J8">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.729918666666667</v>
+        <v>1.729918666666666</v>
       </c>
       <c r="N8">
-        <v>5.189756</v>
+        <v>5.189755999999999</v>
       </c>
       <c r="O8">
-        <v>0.538429711595603</v>
+        <v>0.6406561219669091</v>
       </c>
       <c r="P8">
-        <v>0.6031258963058138</v>
+        <v>0.7209129882400922</v>
       </c>
       <c r="Q8">
-        <v>0.7956354376446667</v>
+        <v>0.09245550313999998</v>
       </c>
       <c r="R8">
-        <v>4.773812625868</v>
+        <v>0.8320995282599999</v>
       </c>
       <c r="S8">
-        <v>0.06831921170309102</v>
+        <v>0.01599767125133354</v>
       </c>
       <c r="T8">
-        <v>0.05327199343500554</v>
+        <v>0.02101366634412105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H9">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I9">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J9">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1372143333333334</v>
+        <v>0.843062</v>
       </c>
       <c r="N9">
-        <v>0.411643</v>
+        <v>1.686124</v>
       </c>
       <c r="O9">
-        <v>0.04270736847172562</v>
+        <v>0.3122186273291074</v>
       </c>
       <c r="P9">
-        <v>0.04783896455498372</v>
+        <v>0.2342207786615281</v>
       </c>
       <c r="Q9">
-        <v>0.06310850807983334</v>
+        <v>0.04505744859</v>
       </c>
       <c r="R9">
-        <v>0.3786510484790001</v>
+        <v>0.27034469154</v>
       </c>
       <c r="S9">
-        <v>0.005418968688141698</v>
+        <v>0.007796336891652567</v>
       </c>
       <c r="T9">
-        <v>0.004225447823282247</v>
+        <v>0.006827227937270032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H10">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I10">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J10">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.9634259999999999</v>
+        <v>0.04872966666666667</v>
       </c>
       <c r="N10">
-        <v>1.926852</v>
+        <v>0.146189</v>
       </c>
       <c r="O10">
-        <v>0.2998621804129359</v>
+        <v>0.018046489625759</v>
       </c>
       <c r="P10">
-        <v>0.2239285121590783</v>
+        <v>0.02030722616589891</v>
       </c>
       <c r="Q10">
-        <v>0.443105148189</v>
+        <v>0.002604357035</v>
       </c>
       <c r="R10">
-        <v>1.772420592756</v>
+        <v>0.023439213315</v>
       </c>
       <c r="S10">
-        <v>0.03804832338221422</v>
+        <v>0.000450634589094593</v>
       </c>
       <c r="T10">
-        <v>0.0197788194848134</v>
+        <v>0.0005919289595080605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,19 +1098,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H11">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I11">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J11">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.311839</v>
+        <v>0.01975833333333333</v>
       </c>
       <c r="N11">
-        <v>0.935517</v>
+        <v>0.059275</v>
       </c>
       <c r="O11">
-        <v>0.09705854157744292</v>
+        <v>0.007317278814184819</v>
       </c>
       <c r="P11">
-        <v>0.1087208202340006</v>
+        <v>0.008233935733766958</v>
       </c>
       <c r="Q11">
-        <v>0.1434230198335</v>
+        <v>0.001055984125</v>
       </c>
       <c r="R11">
-        <v>0.8605381190010001</v>
+        <v>0.009503857125000001</v>
       </c>
       <c r="S11">
-        <v>0.01231537358882395</v>
+        <v>0.0001827180243970613</v>
       </c>
       <c r="T11">
-        <v>0.009602928438704261</v>
+        <v>0.0002400084074372236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H12">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I12">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J12">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.07049800000000001</v>
+        <v>0.058761</v>
       </c>
       <c r="N12">
-        <v>0.140996</v>
+        <v>0.117522</v>
       </c>
       <c r="O12">
-        <v>0.02194219794229256</v>
+        <v>0.02176148226403952</v>
       </c>
       <c r="P12">
-        <v>0.01638580674612343</v>
+        <v>0.0163250711987138</v>
       </c>
       <c r="Q12">
-        <v>0.14087298099</v>
+        <v>0.0540788353785</v>
       </c>
       <c r="R12">
-        <v>0.84523788594</v>
+        <v>0.216315341514</v>
       </c>
       <c r="S12">
-        <v>0.01209640817406575</v>
+        <v>0.009357316770319276</v>
       </c>
       <c r="T12">
-        <v>0.009432189874152529</v>
+        <v>0.005462782103957006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H13">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I13">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J13">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.729918666666667</v>
+        <v>1.729918666666666</v>
       </c>
       <c r="N13">
-        <v>5.189756</v>
+        <v>5.189755999999999</v>
       </c>
       <c r="O13">
-        <v>0.538429711595603</v>
+        <v>0.6406561219669091</v>
       </c>
       <c r="P13">
-        <v>0.6031258963058138</v>
+        <v>0.7209129882400922</v>
       </c>
       <c r="Q13">
-        <v>3.45681862526</v>
+        <v>1.592076152428666</v>
       </c>
       <c r="R13">
-        <v>31.11136762734</v>
+        <v>9.552456914571998</v>
       </c>
       <c r="S13">
-        <v>0.2968283114405457</v>
+        <v>0.2754785818976593</v>
       </c>
       <c r="T13">
-        <v>0.3471783879863424</v>
+        <v>0.2412357362936599</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H14">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I14">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J14">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1372143333333334</v>
+        <v>0.843062</v>
       </c>
       <c r="N14">
-        <v>0.411643</v>
+        <v>1.686124</v>
       </c>
       <c r="O14">
-        <v>0.04270736847172562</v>
+        <v>0.3122186273291074</v>
       </c>
       <c r="P14">
-        <v>0.04783896455498372</v>
+        <v>0.2342207786615281</v>
       </c>
       <c r="Q14">
-        <v>0.274189227655</v>
+        <v>0.775885555247</v>
       </c>
       <c r="R14">
-        <v>2.467703048895</v>
+        <v>3.103542220988</v>
       </c>
       <c r="S14">
-        <v>0.02354393859871651</v>
+        <v>0.1342522794203453</v>
       </c>
       <c r="T14">
-        <v>0.02753762472953679</v>
+        <v>0.07837620200687873</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H15">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I15">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J15">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.9634259999999999</v>
+        <v>0.04872966666666667</v>
       </c>
       <c r="N15">
-        <v>1.926852</v>
+        <v>0.146189</v>
       </c>
       <c r="O15">
-        <v>0.2998621804129359</v>
+        <v>0.018046489625759</v>
       </c>
       <c r="P15">
-        <v>0.2239285121590783</v>
+        <v>0.02030722616589891</v>
       </c>
       <c r="Q15">
-        <v>1.92517082163</v>
+        <v>0.04484681373216667</v>
       </c>
       <c r="R15">
-        <v>11.55102492978</v>
+        <v>0.269080882393</v>
       </c>
       <c r="S15">
-        <v>0.1653095710730442</v>
+        <v>0.007759890524532739</v>
       </c>
       <c r="T15">
-        <v>0.1289003512396844</v>
+        <v>0.00679531196708166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>27</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H16">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I16">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J16">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.311839</v>
+        <v>0.01975833333333333</v>
       </c>
       <c r="N16">
-        <v>0.935517</v>
+        <v>0.059275</v>
       </c>
       <c r="O16">
-        <v>0.09705854157744292</v>
+        <v>0.007317278814184819</v>
       </c>
       <c r="P16">
-        <v>0.1087208202340006</v>
+        <v>0.008233935733766958</v>
       </c>
       <c r="Q16">
-        <v>0.6231338409450001</v>
+        <v>0.01818395969583333</v>
       </c>
       <c r="R16">
-        <v>5.608204568505</v>
+        <v>0.109103758175</v>
       </c>
       <c r="S16">
-        <v>0.05350693393560797</v>
+        <v>0.003146389337376123</v>
       </c>
       <c r="T16">
-        <v>0.06258315111419863</v>
+        <v>0.002755283344497639</v>
       </c>
     </row>
   </sheetData>
